--- a/interview/hackerrank.xlsx
+++ b/interview/hackerrank.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>uname</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>nishfull2127</t>
+  </si>
+  <si>
+    <t>nishantchawla33@gmail.com</t>
+  </si>
+  <si>
+    <t>nishant2123</t>
   </si>
 </sst>
 </file>
@@ -393,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C6"/>
+  <dimension ref="B1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -445,6 +451,16 @@
       </c>
       <c r="C6" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
